--- a/Commercial_tot_GW_USE_UseCode_Description.xlsx
+++ b/Commercial_tot_GW_USE_UseCode_Description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>GSA_Jurisdiction_Prelim</t>
   </si>
@@ -43,87 +43,84 @@
     <t>Wholesale nursery</t>
   </si>
   <si>
-    <t>City park/other rec facility</t>
+    <t>Retail nursery</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Miscellaneous state property</t>
+  </si>
+  <si>
+    <t>Light manuftg &amp; industrial</t>
+  </si>
+  <si>
+    <t>Auto and truck repair &amp; maint</t>
+  </si>
+  <si>
+    <t>Religious building</t>
+  </si>
+  <si>
+    <t>Specialty shop (tires, brakes)</t>
+  </si>
+  <si>
+    <t>Store w/res unit or units</t>
+  </si>
+  <si>
+    <t>Warehousing/active</t>
+  </si>
+  <si>
+    <t>Chicken ranch w/residence</t>
+  </si>
+  <si>
+    <t>Sand &amp; gravel, shale</t>
+  </si>
+  <si>
+    <t>Com'l use/no other category</t>
+  </si>
+  <si>
+    <t>Misc multiple use/none dominat</t>
+  </si>
+  <si>
+    <t>Light manufctrg &amp; warehousing</t>
+  </si>
+  <si>
+    <t>Single story store</t>
+  </si>
+  <si>
+    <t>Used car lot</t>
+  </si>
+  <si>
+    <t>Miscellaneous federal property</t>
+  </si>
+  <si>
+    <t>One story office building</t>
   </si>
   <si>
     <t>Municipal utility property</t>
   </si>
   <si>
-    <t>Retail nursery</t>
-  </si>
-  <si>
-    <t>Dairy</t>
-  </si>
-  <si>
-    <t>Miscellaneous state property</t>
-  </si>
-  <si>
-    <t>Light manuftg &amp; industrial</t>
-  </si>
-  <si>
-    <t>Store w/res unit or units</t>
-  </si>
-  <si>
-    <t>Auto and truck repair &amp; maint</t>
-  </si>
-  <si>
-    <t>Religious building</t>
-  </si>
-  <si>
-    <t>Specialty shop (tires, brakes)</t>
-  </si>
-  <si>
-    <t>Warehousing/active</t>
-  </si>
-  <si>
-    <t>Chicken ranch w/residence</t>
-  </si>
-  <si>
-    <t>Sand &amp; gravel, shale</t>
-  </si>
-  <si>
-    <t>Single story store</t>
-  </si>
-  <si>
-    <t>Com'l use/no other category</t>
-  </si>
-  <si>
-    <t>Misc multiple use/none dominat</t>
-  </si>
-  <si>
-    <t>Light manufctrg &amp; warehousing</t>
-  </si>
-  <si>
-    <t>Miscellaneous federal property</t>
-  </si>
-  <si>
-    <t>Used car lot</t>
-  </si>
-  <si>
-    <t>One story office building</t>
-  </si>
-  <si>
     <t>Single live/work unit</t>
   </si>
   <si>
     <t>Winery w/vineyards</t>
   </si>
   <si>
+    <t>Sand and gravel, shale</t>
+  </si>
+  <si>
+    <t>Two story office building</t>
+  </si>
+  <si>
     <t>Prop used along w/rel bldg</t>
   </si>
   <si>
+    <t>Veterinary hospitals</t>
+  </si>
+  <si>
     <t>Mineral processing</t>
   </si>
   <si>
-    <t>Sand and gravel, shale</t>
-  </si>
-  <si>
-    <t>Veterinary hospitals</t>
-  </si>
-  <si>
-    <t>Two story office building</t>
-  </si>
-  <si>
     <t>Horse ranch w/residence</t>
   </si>
   <si>
@@ -136,31 +133,34 @@
     <t>Medical offices</t>
   </si>
   <si>
+    <t>Neighborhood shopping center</t>
+  </si>
+  <si>
+    <t>Sbe-valued utility</t>
+  </si>
+  <si>
+    <t>Other sales: trailers, mbh, rv</t>
+  </si>
+  <si>
+    <t>Warehousing yard</t>
+  </si>
+  <si>
     <t>Privately owned park</t>
   </si>
   <si>
-    <t>Neighborhood shopping center</t>
-  </si>
-  <si>
-    <t>Sbe-valued utility</t>
-  </si>
-  <si>
-    <t>Warehousing yard</t>
-  </si>
-  <si>
-    <t>City building</t>
-  </si>
-  <si>
-    <t>Other sales: trailers, mbh, rv</t>
+    <t>Rest home</t>
   </si>
   <si>
     <t>Club/lodge hall</t>
   </si>
   <si>
+    <t>Meat products</t>
+  </si>
+  <si>
     <t>Home for handicapped (physical, mental, etc.)</t>
   </si>
   <si>
-    <t>Rest home</t>
+    <t>Retail lumber yard</t>
   </si>
   <si>
     <t>County hospital</t>
@@ -169,238 +169,229 @@
     <t>Industr'l in no other category</t>
   </si>
   <si>
-    <t>Meat products</t>
-  </si>
-  <si>
-    <t>Retail lumber yard</t>
+    <t>Airport/private</t>
+  </si>
+  <si>
+    <t>Specialty lumber products</t>
+  </si>
+  <si>
+    <t>Truck terminal</t>
+  </si>
+  <si>
+    <t>Auto sales w/o service center</t>
+  </si>
+  <si>
+    <t>Winery with vineyards</t>
+  </si>
+  <si>
+    <t>Horse ranch w/res</t>
+  </si>
+  <si>
+    <t>Multiple stores in 1 structure</t>
+  </si>
+  <si>
+    <t>Chicken ranch</t>
+  </si>
+  <si>
+    <t>Full service station</t>
   </si>
   <si>
     <t>Restaurant</t>
   </si>
   <si>
-    <t>Specialty lumber products</t>
-  </si>
-  <si>
-    <t>Multiple stores in 1 structure</t>
+    <t>Cemetery</t>
   </si>
   <si>
     <t>Multiple combo/stores &amp; office</t>
   </si>
   <si>
-    <t>Truck terminal</t>
+    <t>Other food processing plants</t>
+  </si>
+  <si>
+    <t>Recreational center</t>
+  </si>
+  <si>
+    <t>Misc multiple use/no dominate</t>
   </si>
   <si>
     <t>18 hole public golf course</t>
   </si>
   <si>
-    <t>Winery with vineyards</t>
-  </si>
-  <si>
-    <t>Horse ranch w/res</t>
-  </si>
-  <si>
-    <t>Airport/private</t>
-  </si>
-  <si>
-    <t>Auto sales w/o service center</t>
-  </si>
-  <si>
-    <t>Chicken ranch</t>
-  </si>
-  <si>
-    <t>Full service station</t>
-  </si>
-  <si>
-    <t>Cemetery</t>
-  </si>
-  <si>
-    <t>Recreational center</t>
-  </si>
-  <si>
-    <t>Other food processing plants</t>
+    <t>Mini-warehouse</t>
+  </si>
+  <si>
+    <t>Bulk plant</t>
   </si>
   <si>
     <t>County building</t>
   </si>
   <si>
+    <t>Fire district</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more residences</t>
+  </si>
+  <si>
+    <t>Alternate use office bldgs</t>
+  </si>
+  <si>
     <t>Industrial common area</t>
   </si>
   <si>
-    <t>Fire district</t>
-  </si>
-  <si>
     <t>Grocery store</t>
   </si>
   <si>
+    <t>Dairy w/manufactured home</t>
+  </si>
+  <si>
+    <t>Dental offices</t>
+  </si>
+  <si>
+    <t>Arcades &amp; amusement center</t>
+  </si>
+  <si>
+    <t>State pk/other recreation fac</t>
+  </si>
+  <si>
+    <t>Cocktail lounge bar</t>
+  </si>
+  <si>
     <t>Sfd converted to residential care facility</t>
   </si>
   <si>
-    <t>Bulk plant</t>
+    <t>Service station/mini-mart</t>
+  </si>
+  <si>
+    <t>Winery</t>
+  </si>
+  <si>
+    <t>Drive-in restaurant</t>
+  </si>
+  <si>
+    <t>Feed and grain mill</t>
+  </si>
+  <si>
+    <t>3-or-more story office bldg</t>
+  </si>
+  <si>
+    <t>Multiple story store</t>
+  </si>
+  <si>
+    <t>Indiv parcel/neighborhd shop ctr</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more res</t>
   </si>
   <si>
     <t>Horse ranch</t>
   </si>
   <si>
-    <t>Misc multiple use/no dominate</t>
-  </si>
-  <si>
-    <t>Mini-warehouse</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more residences</t>
-  </si>
-  <si>
-    <t>Alternate use office bldgs</t>
-  </si>
-  <si>
-    <t>Dairy w/manufactured home</t>
-  </si>
-  <si>
-    <t>Dental offices</t>
-  </si>
-  <si>
-    <t>Parochial school</t>
-  </si>
-  <si>
-    <t>Service station/mini-mart</t>
-  </si>
-  <si>
-    <t>State pk/other recreation fac</t>
-  </si>
-  <si>
-    <t>Cocktail lounge bar</t>
-  </si>
-  <si>
-    <t>Arcades &amp; amusement center</t>
-  </si>
-  <si>
-    <t>Winery</t>
-  </si>
-  <si>
-    <t>Indiv parcel/neighborhd shop ctr</t>
-  </si>
-  <si>
-    <t>Drive-in restaurant</t>
-  </si>
-  <si>
-    <t>Feed and grain mill</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more res</t>
-  </si>
-  <si>
     <t>Multi-offices/residential units</t>
   </si>
   <si>
-    <t>Multiple story store</t>
-  </si>
-  <si>
-    <t>3-or-more story office bldg</t>
+    <t>Assisted care facility</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Auto sales w/service center</t>
+  </si>
+  <si>
+    <t>Alternate use</t>
+  </si>
+  <si>
+    <t>Alternate use stores</t>
+  </si>
+  <si>
+    <t>State building</t>
+  </si>
+  <si>
+    <t>Specialty shop (tires,brakes)</t>
+  </si>
+  <si>
+    <t>Horse ranch w/manufacturedhome</t>
+  </si>
+  <si>
+    <t>Health spa or club</t>
+  </si>
+  <si>
+    <t>Chicken ranch w/manufactured home</t>
+  </si>
+  <si>
+    <t>Alternate use service stations</t>
+  </si>
+  <si>
+    <t>Alternate use prof bldgs</t>
+  </si>
+  <si>
+    <t>Sfd converted to res care fac</t>
   </si>
   <si>
     <t>Live/work units</t>
   </si>
   <si>
-    <t>Alternate use prof bldgs</t>
-  </si>
-  <si>
-    <t>Alternate use service stations</t>
+    <t>Self service sta/no repair facilities</t>
+  </si>
+  <si>
+    <t>Community shopping center</t>
+  </si>
+  <si>
+    <t>Convenience store</t>
+  </si>
+  <si>
+    <t>Country club</t>
+  </si>
+  <si>
+    <t>Lumber mill</t>
+  </si>
+  <si>
+    <t>Rural res/manufactured home</t>
+  </si>
+  <si>
+    <t>Heavy industry</t>
+  </si>
+  <si>
+    <t>Retail feed and grain sales</t>
+  </si>
+  <si>
+    <t>Other poultry ranch</t>
+  </si>
+  <si>
+    <t>Other poultry ranch w/residence</t>
+  </si>
+  <si>
+    <t>Farm or const mach sales/serv</t>
+  </si>
+  <si>
+    <t>Regional shopping center</t>
   </si>
   <si>
     <t>Alternate use store/off combo</t>
   </si>
   <si>
-    <t>Auto sales w/service center</t>
-  </si>
-  <si>
-    <t>Lumber mill</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Alternate use</t>
-  </si>
-  <si>
-    <t>Liquor store</t>
-  </si>
-  <si>
-    <t>Assisted care facility</t>
-  </si>
-  <si>
-    <t>Horse ranch w/manufacturedhome</t>
-  </si>
-  <si>
-    <t>State building</t>
-  </si>
-  <si>
-    <t>Specialty shop (tires,brakes)</t>
-  </si>
-  <si>
-    <t>Alternate use stores</t>
-  </si>
-  <si>
-    <t>Heavy industry</t>
-  </si>
-  <si>
-    <t>Other poultry ranch w/residence</t>
-  </si>
-  <si>
-    <t>Community shopping center</t>
-  </si>
-  <si>
-    <t>Other poultry ranch</t>
-  </si>
-  <si>
-    <t>Regional shopping center</t>
-  </si>
-  <si>
-    <t>Farm or const mach sales/serv</t>
-  </si>
-  <si>
-    <t>Convenience store</t>
-  </si>
-  <si>
-    <t>Retail feed and grain sales</t>
-  </si>
-  <si>
-    <t>Country club</t>
-  </si>
-  <si>
-    <t>Rural res/manufactured home</t>
-  </si>
-  <si>
-    <t>Chicken ranch w/manufactured home</t>
-  </si>
-  <si>
-    <t>Self service sta/no repair facilities</t>
-  </si>
-  <si>
-    <t>Sfd converted to res care fac</t>
-  </si>
-  <si>
-    <t>Health spa or club</t>
+    <t>Rural residential w/misc residential imp</t>
   </si>
   <si>
     <t>Utility water company</t>
   </si>
   <si>
+    <t>Warehousing/inactive</t>
+  </si>
+  <si>
+    <t>Mortuary/funeral home</t>
+  </si>
+  <si>
+    <t>Radio &amp; tv broadcast site</t>
+  </si>
+  <si>
+    <t>Volunteer fire department</t>
+  </si>
+  <si>
     <t>Mutual water company</t>
   </si>
   <si>
-    <t>Warehousing/inactive</t>
-  </si>
-  <si>
     <t>Cable tv</t>
-  </si>
-  <si>
-    <t>Volunteer fire department</t>
-  </si>
-  <si>
-    <t>Mortuary/funeral home</t>
-  </si>
-  <si>
-    <t>Radio &amp; tv broadcast site</t>
   </si>
 </sst>
 </file>
@@ -758,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -851,16 +842,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -868,16 +859,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -885,16 +876,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -902,16 +893,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -919,16 +910,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -936,16 +927,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -953,16 +944,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -970,16 +961,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -987,16 +978,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1004,16 +995,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>35.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1021,16 +1012,16 @@
         <v>20</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1038,16 +1029,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1061,10 +1052,10 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1072,16 +1063,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1089,16 +1080,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1106,16 +1097,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
         <v>24</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1123,13 +1114,13 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>24</v>
@@ -1140,16 +1131,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1157,16 +1148,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1177,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1194,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1225,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -1242,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -1259,13 +1250,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -1276,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -1285,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1296,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1310,13 +1301,13 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>16</v>
@@ -1327,16 +1318,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1344,16 +1335,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1361,16 +1352,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1378,16 +1369,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1395,16 +1386,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1412,16 +1403,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1429,10 +1420,10 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1449,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1466,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
         <v>10</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1483,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1500,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>10</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1551,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1565,16 +1556,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1582,13 +1573,13 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>8</v>
@@ -1602,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -1619,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>8</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -1633,13 +1624,13 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>8</v>
@@ -1650,10 +1641,10 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1667,10 +1658,10 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1684,13 +1675,13 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>8</v>
@@ -1701,10 +1692,10 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1721,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1735,16 +1726,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1752,16 +1743,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1772,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1786,16 +1777,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1803,13 +1794,13 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -1820,13 +1811,13 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -1837,13 +1828,13 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -1891,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -1922,13 +1913,13 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>6</v>
@@ -1939,13 +1930,13 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -1956,16 +1947,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1973,16 +1964,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1993,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2007,16 +1998,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2024,16 +2015,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2044,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2061,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -2078,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -2095,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -2109,10 +2100,10 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2180,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2211,16 +2202,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2231,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2251,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2265,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2333,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -2347,10 +2338,10 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2364,10 +2355,10 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2435,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -2449,10 +2440,10 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2486,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2554,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2588,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -2639,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -2673,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2690,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2704,16 +2695,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2724,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2738,16 +2729,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2755,16 +2746,16 @@
         <v>122</v>
       </c>
       <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
         <v>0.5</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2775,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2792,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2815,57 +2806,6 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0.5</v>
-      </c>
-      <c r="E123">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0.5</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0.5</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
         <v>0.5</v>
       </c>
     </row>
